--- a/data/trans_orig/TAM_HOG-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.854308414170665</v>
+        <v>2.854853980526424</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.778699870799308</v>
+        <v>2.774857179575607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.567711902374883</v>
+        <v>2.56492603675354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.226625449473604</v>
+        <v>2.229096454009655</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.81957589187745</v>
+        <v>2.82167885263618</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.704490509847937</v>
+        <v>2.708126199368853</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.497549254422271</v>
+        <v>2.507600694219643</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.064800132926151</v>
+        <v>2.067276430931841</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.85570166370824</v>
+        <v>2.859340697301652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.758594068042185</v>
+        <v>2.760610258784682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.555107963845174</v>
+        <v>2.558196177217722</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.156005668814559</v>
+        <v>2.155670717362459</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.016684136007749</v>
+        <v>3.017545182316503</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.94776304624101</v>
+        <v>2.943822461569968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.766056063058259</v>
+        <v>2.763868670240538</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.441619037667566</v>
+        <v>2.442099058743091</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.969124043045654</v>
+        <v>2.973209779645416</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.8570812126676</v>
+        <v>2.852252142050831</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.679481883602185</v>
+        <v>2.68805323723741</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.208772681372289</v>
+        <v>2.201643257096723</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.97168627398448</v>
+        <v>2.967693190143097</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.867633654302179</v>
+        <v>2.873447064675951</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.680296487953433</v>
+        <v>2.687985332035698</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.27661694700466</v>
+        <v>2.275526369138262</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>3.090652595784278</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>3.034532384247159</v>
+        <v>3.034532384247158</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>3.416161819336555</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.25337362302744</v>
+        <v>3.257668451500338</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.307277935199923</v>
+        <v>3.300256717475461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.025632743543726</v>
+        <v>3.021625485159801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.742611785715501</v>
+        <v>2.74408134350519</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.460196486056577</v>
+        <v>3.458115645685419</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.392707038038653</v>
+        <v>3.396309793515049</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.037757019989654</v>
+        <v>3.030229784807712</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.982861211224376</v>
+        <v>2.980109200624022</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.376187949436435</v>
+        <v>3.375170701308783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.36485655118006</v>
+        <v>3.36656955385667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.049328151757694</v>
+        <v>3.044473273220964</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.877935457248193</v>
+        <v>2.878834576847956</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.371555929103484</v>
+        <v>3.370490038749274</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.413120076406747</v>
+        <v>3.414744790023203</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.132669351665104</v>
+        <v>3.132175414444402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.870915514096742</v>
+        <v>2.870675303193123</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.582697847531636</v>
+        <v>3.579954436986696</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.513730700680143</v>
+        <v>3.508753130853</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.144764392426072</v>
+        <v>3.14774275900276</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.09359383626333</v>
+        <v>3.088947574517685</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.457516265733412</v>
+        <v>3.459082869971363</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.447193209874339</v>
+        <v>3.448634307797794</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.127543634441432</v>
+        <v>3.124860403060812</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.962456919669531</v>
+        <v>2.962283156499668</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>2.766128914354738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.792120663462425</v>
+        <v>2.792120663462424</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>3.110347739745953</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.015962599386346</v>
+        <v>3.033407181979845</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.925376705436181</v>
+        <v>2.912528165243268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.653613318304364</v>
+        <v>2.664443297804981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.693523711875857</v>
+        <v>2.693284178563775</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.999534771696167</v>
+        <v>3.003515514042722</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.996992994748864</v>
+        <v>2.990829035346845</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.79901525603926</v>
+        <v>2.816959268115723</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.78828504449665</v>
+        <v>2.783497541642356</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.032398512695689</v>
+        <v>3.052214728843015</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.987826840904981</v>
+        <v>2.984387421766526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.76739794469891</v>
+        <v>2.766801208056266</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.761058271483323</v>
+        <v>2.768111609552249</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.236052212431481</v>
+        <v>3.238024134358149</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.161258372091871</v>
+        <v>3.149542201248179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.875639831544796</v>
+        <v>2.881843121355912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.892551681122678</v>
+        <v>2.887273118246519</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.221045554691531</v>
+        <v>3.223079980827638</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.229836086936845</v>
+        <v>3.22010333502539</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.015930208024136</v>
+        <v>3.012521210865743</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.951578122825314</v>
+        <v>2.945851246207065</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.195665747167659</v>
+        <v>3.202919664293642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.150489012151657</v>
+        <v>3.14915499459611</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.913849653234642</v>
+        <v>2.914905615472758</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.887864046809521</v>
+        <v>2.894529852974983</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>2.936603955750877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.725584709211992</v>
+        <v>2.725584709211993</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.218792320668133</v>
@@ -1101,7 +1101,7 @@
         <v>2.928854835477241</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>2.764700413966903</v>
+        <v>2.764700413966904</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.122814187403312</v>
+        <v>3.122070985042953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.13023576899606</v>
+        <v>3.127036671754319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.88897522631626</v>
+        <v>2.892841630148987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.677432382117594</v>
+        <v>2.677243832650495</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.176006538211604</v>
+        <v>3.170765200790224</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.109732669929107</v>
+        <v>3.108614463586134</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.871804035155923</v>
+        <v>2.880316321037513</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.764174429398603</v>
+        <v>2.757852018698447</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.161187822449524</v>
+        <v>3.161152654695599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.131178455107673</v>
+        <v>3.131722197501609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.895218753137563</v>
+        <v>2.898374516660312</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.733968035156531</v>
+        <v>2.729778793949266</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.213151503229673</v>
+        <v>3.207845283233538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.21654510018821</v>
+        <v>3.217886001523774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.978601180993857</v>
+        <v>2.984245940626025</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.773266352741974</v>
+        <v>2.774825190820724</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.265796640292091</v>
+        <v>3.265514244690142</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.198119312343526</v>
+        <v>3.196361785266171</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.966422558182625</v>
+        <v>2.968625484118088</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.844069222960896</v>
+        <v>2.841848550598947</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.222492029222322</v>
+        <v>3.223140815441151</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.193863745165111</v>
+        <v>3.194473461241774</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.959569806333549</v>
+        <v>2.961190834161625</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.795306109327383</v>
+        <v>2.794016259256275</v>
       </c>
     </row>
     <row r="16">
